--- a/BOMs/ele_BOM_SKY_R.xlsx
+++ b/BOMs/ele_BOM_SKY_R.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Id</t>
   </si>
@@ -298,6 +298,27 @@
   </si>
   <si>
     <t>https://www.mouser.fr/ProductDetail/859-LTW-170TK</t>
+  </si>
+  <si>
+    <t>Jack 6.35mm stéréo connector</t>
+  </si>
+  <si>
+    <t>PS000122</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/pro-signal/ps000122/phone-audio-conn-plug-3pos-6-35mm/dp/2910967?ost=PS000122&amp;ddkey=https%3Afr-FR%2FElement14_France%2Fsearch</t>
+  </si>
+  <si>
+    <t>CMC321CTP</t>
+  </si>
+  <si>
+    <t>Lentille led</t>
+  </si>
+  <si>
+    <t>https://fr.farnell.com/vcc-visual-communications-company/cmc321ctp/lentille-led-5mm-pc-transparent/dp/2750614?st=CMC321CTP</t>
+  </si>
+  <si>
+    <t>par paquet de 5</t>
   </si>
 </sst>
 </file>
@@ -349,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -372,13 +393,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -401,9 +433,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -412,6 +441,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -700,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,16 +755,16 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -752,7 +785,7 @@
       <c r="F2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -761,7 +794,7 @@
       <c r="I2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="K2" s="10" t="s">
@@ -788,7 +821,9 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>55</v>
       </c>
@@ -827,7 +862,9 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G4" s="5" t="s">
         <v>57</v>
       </c>
@@ -845,13 +882,13 @@
         <v>1.05</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L18" si="1">K4*D4</f>
+        <f t="shared" ref="L4:L20" si="1">K4*D4</f>
         <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A18" si="2">A4+1</f>
+        <f t="shared" ref="A5:A20" si="2">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1112,7 +1149,9 @@
       <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G11" s="5" t="s">
         <v>64</v>
       </c>
@@ -1151,7 +1190,9 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>66</v>
       </c>
@@ -1190,7 +1231,9 @@
       <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>69</v>
       </c>
@@ -1229,7 +1272,9 @@
       <c r="E14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>73</v>
       </c>
@@ -1268,7 +1313,9 @@
       <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>71</v>
       </c>
@@ -1307,7 +1354,9 @@
       <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>80</v>
       </c>
@@ -1412,75 +1461,148 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1.66</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="1"/>
+        <v>1.66</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="15">
+        <f>0.575/5</f>
+        <v>0.11499999999999999</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="14">
-        <f>SUM(I3:I18)</f>
-        <v>17.314999999999998</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13" t="s">
+      <c r="G22" s="13">
+        <f>SUM(I3:I18)+L19+L20</f>
+        <v>19.204999999999998</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="14">
-        <f>SUM(L3:L18)</f>
-        <v>18.863000000000003</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="13" t="s">
+      <c r="J22" s="13">
+        <f>SUM(L3:L20)</f>
+        <v>20.753000000000004</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>5.8</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>5.8</v>
       </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="13" t="s">
+      <c r="K23" s="13"/>
+      <c r="L23" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <f>G23+G22</f>
-        <v>23.114999999999998</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13" t="s">
+        <v>25.004999999999999</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <f>J23+J22</f>
-        <v>24.663000000000004</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="13" t="s">
+        <v>26.553000000000004</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="12" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1519,8 +1641,10 @@
     <hyperlink ref="G16" r:id="rId18"/>
     <hyperlink ref="J17" r:id="rId19"/>
     <hyperlink ref="G17" r:id="rId20"/>
+    <hyperlink ref="J19" r:id="rId21"/>
+    <hyperlink ref="J20" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>